--- a/Excel/镇魂街/MuPBoss.千机黑刹.xlsx
+++ b/Excel/镇魂街/MuPBoss.千机黑刹.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2317,7 +2317,7 @@
     <t>ui_t_c2_099</t>
   </si>
   <si>
-    <t>【%s】进入了【削弱属性法阵】，3个同名法阵中均有队伍时，移除%s的【王者祝福】；若%s未获得王者祝福，则使其获得【虚弱诅咒】，全属性降低%d%</t>
+    <t>【%s】进入了【削弱属性法阵】，3个同名法阵中均有队伍时，移除%s的【王者祝福】；若%s未获得王者祝福，则使其获得【虚弱诅咒】，全属性降低%d%%</t>
   </si>
   <si>
     <t>【1】在此等待：该队伍在法阵生效前，将无法移动</t>
@@ -2329,19 +2329,19 @@
     <t>降低攻击法阵</t>
   </si>
   <si>
-    <t>【%s】进入了【降低攻击法阵】，3个同名法阵中均有队伍时，移除%s的【攻击祝福】；若%s未获得攻击祝福，则使其获得【无力诅咒】，攻击降低%d%</t>
+    <t>【%s】进入了【降低攻击法阵】，3个同名法阵中均有队伍时，移除%s的【攻击祝福】；若%s未获得攻击祝福，则使其获得【无力诅咒】，攻击降低%d%%</t>
   </si>
   <si>
     <t>降低防御法阵</t>
   </si>
   <si>
-    <t>【%s】进入了【降低防御法阵】，3个同名法阵中均有队伍时，移除%s的【防御祝福】；若%s未获得防御祝福，则使其获得【迟钝诅咒】，防御降低%d%</t>
+    <t>【%s】进入了【降低防御法阵】，3个同名法阵中均有队伍时，移除%s的【防御祝福】；若%s未获得防御祝福，则使其获得【迟钝诅咒】，防御降低%d%%</t>
   </si>
   <si>
     <t>减少生命法阵</t>
   </si>
   <si>
-    <t>【%s】进入了【减少生命法阵】，3个同名法阵中均有队伍时，移除%s的【生命祝福】；若%s未获得生命祝福，则使其获得【衰老诅咒】，生命降低%d%</t>
+    <t>【%s】进入了【减少生命法阵】，3个同名法阵中均有队伍时，移除%s的【生命祝福】；若%s未获得生命祝福，则使其获得【衰老诅咒】，生命降低%d%%</t>
   </si>
   <si>
     <t>精英</t>
@@ -2576,8 +2576,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2608,8 +2608,105 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2623,15 +2720,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2647,22 +2752,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2675,115 +2780,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2802,7 +2802,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,7 +2868,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2826,25 +2910,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,67 +2946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2928,19 +2958,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2952,61 +2994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3061,21 +3061,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3088,23 +3073,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3136,16 +3132,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3153,19 +3164,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3175,172 +3175,172 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3993,7 +3993,7 @@
   <sheetPr/>
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10810,12 +10810,12 @@
   <sheetPr/>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29:D32"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12304,7 +12304,9 @@
       <c r="J29" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="5">
+        <v>301</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
@@ -12351,7 +12353,9 @@
       <c r="J30" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="5">
+        <v>302</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
@@ -12398,7 +12402,9 @@
       <c r="J31" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="5">
+        <v>303</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
@@ -12445,7 +12451,9 @@
       <c r="J32" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5">
+        <v>304</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5" t="s">
@@ -12564,7 +12572,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
